--- a/ptf_risk.xlsx
+++ b/ptf_risk.xlsx
@@ -652,19 +652,19 @@
         <v>34128</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K2" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L2" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="M2" t="n">
         <v>0.0000634669479606188</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0000626449931094773</v>
+        <v>0.0000629188841729135</v>
       </c>
       <c r="O2" t="n">
         <v>2.26</v>
@@ -699,19 +699,19 @@
         <v>34128</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K3" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L3" t="n">
-        <v>14.66</v>
+        <v>14.72</v>
       </c>
       <c r="M3" t="n">
         <v>0.000416436357243319</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000421273210543549</v>
+        <v>0.000419079626708275</v>
       </c>
       <c r="O3" t="n">
         <v>11.6</v>
@@ -743,22 +743,22 @@
         <v>45670</v>
       </c>
       <c r="I4" t="n">
-        <v>34799.26953125</v>
+        <v>34799</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K4" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L4" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000642611764592311</v>
+        <v>0.000642616741860398</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000646565295854697</v>
+        <v>0.000649117900064447</v>
       </c>
       <c r="O4" t="n">
         <v>18.33</v>
@@ -793,19 +793,19 @@
         <v>35316</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K5" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L5" t="n">
-        <v>12.06</v>
+        <v>12.17</v>
       </c>
       <c r="M5" t="n">
         <v>0.000345540831351229</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000346558998578118</v>
+        <v>0.000346480914201067</v>
       </c>
       <c r="O5" t="n">
         <v>10.74</v>
@@ -840,19 +840,19 @@
         <v>33740</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K6" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L6" t="n">
-        <v>109.4</v>
+        <v>111.6</v>
       </c>
       <c r="M6" t="n">
         <v>0.00311863663307647</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00314374414962239</v>
+        <v>0.00317726130031545</v>
       </c>
       <c r="O6" t="n">
         <v>86.3</v>
@@ -887,22 +887,22 @@
         <v>34781</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K7" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L7" t="n">
-        <v>35.9</v>
+        <v>35.64</v>
       </c>
       <c r="M7" t="n">
         <v>0.00103125269543716</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00103163084983038</v>
+        <v>0.00101467377010074</v>
       </c>
       <c r="O7" t="n">
-        <v>35.42</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="8">
@@ -934,19 +934,19 @@
         <v>34781</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K8" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L8" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="M8" t="n">
         <v>0.00121417268048647</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00117818565022411</v>
+        <v>0.00114449735011363</v>
       </c>
       <c r="O8" t="n">
         <v>34.8</v>
@@ -981,19 +981,19 @@
         <v>35109</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K9" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L9" t="n">
-        <v>10.46</v>
+        <v>10.5</v>
       </c>
       <c r="M9" t="n">
         <v>0.00030876869178843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000300581021984006</v>
+        <v>0.00029893587502968</v>
       </c>
       <c r="O9" t="n">
         <v>9.16</v>
@@ -1028,10 +1028,10 @@
         <v>34128</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K10" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L10" t="n">
         <v>4.92</v>
@@ -1040,7 +1040,7 @@
         <v>0.000145611228316925</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000141382278026894</v>
+        <v>0.000140072810013907</v>
       </c>
       <c r="O10" t="n">
         <v>2.9</v>
@@ -1075,22 +1075,22 @@
         <v>35316</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K11" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>0.0000371638917204666</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0000353455695067234</v>
+        <v>0.0000355876041701999</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
@@ -1122,19 +1122,19 @@
         <v>34128</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K12" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L12" t="n">
-        <v>5.06</v>
+        <v>4.98</v>
       </c>
       <c r="M12" t="n">
         <v>0.000158150199249883</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000145405350978879</v>
+        <v>0.000141781015014077</v>
       </c>
       <c r="O12" t="n">
         <v>4.8</v>
@@ -1169,19 +1169,19 @@
         <v>33740</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K13" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L13" t="n">
-        <v>9.04</v>
+        <v>9.12</v>
       </c>
       <c r="M13" t="n">
         <v>0.00027473325429757</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000259775567756732</v>
+        <v>0.000259647160025779</v>
       </c>
       <c r="O13" t="n">
         <v>7.74</v>
@@ -1213,22 +1213,22 @@
         <v>45670</v>
       </c>
       <c r="I14" t="n">
-        <v>34799.26953125</v>
+        <v>34799</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K14" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L14" t="n">
-        <v>42.22</v>
+        <v>42.52</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00120749661030286</v>
+        <v>0.00120750596281502</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00121324385737712</v>
+        <v>0.00121054794345352</v>
       </c>
       <c r="O14" t="n">
         <v>46.16</v>
@@ -1263,19 +1263,19 @@
         <v>34401</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K15" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L15" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="M15" t="n">
         <v>0.000157262870265399</v>
       </c>
       <c r="N15" t="n">
-        <v>0.000154600946297701</v>
+        <v>0.000152884347515179</v>
       </c>
       <c r="O15" t="n">
         <v>5.91</v>
@@ -1310,19 +1310,19 @@
         <v>35090</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K16" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L16" t="n">
-        <v>53.42</v>
+        <v>53.32</v>
       </c>
       <c r="M16" t="n">
         <v>0.00141493302935309</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00153508969353591</v>
+        <v>0.00151802484348405</v>
       </c>
       <c r="O16" t="n">
         <v>59.8</v>
@@ -1355,19 +1355,19 @@
         <v>32328</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K17" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L17" t="n">
-        <v>82.76</v>
+        <v>78.99</v>
       </c>
       <c r="M17" t="n">
         <v>0.00394253711952487</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00237821083933043</v>
+        <v>0.00224885188272327</v>
       </c>
       <c r="O17" t="n">
         <v>71.62</v>
@@ -1402,10 +1402,10 @@
         <v>34128</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K18" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
@@ -1414,7 +1414,7 @@
         <v>0.000162320089076418</v>
       </c>
       <c r="N18" t="n">
-        <v>0.000152302047467995</v>
+        <v>0.000150891441681648</v>
       </c>
       <c r="O18" t="n">
         <v>4.95</v>
@@ -1449,19 +1449,19 @@
         <v>34325</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K19" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L19" t="n">
-        <v>23.42</v>
+        <v>23.5</v>
       </c>
       <c r="M19" t="n">
         <v>0.00126794377276038</v>
       </c>
       <c r="N19" t="n">
-        <v>0.000673002632396311</v>
+        <v>0.000669046958399759</v>
       </c>
       <c r="O19" t="n">
         <v>22.64</v>
@@ -1493,22 +1493,22 @@
         <v>45670</v>
       </c>
       <c r="I20" t="n">
-        <v>34799.26953125</v>
+        <v>34799</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K20" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L20" t="n">
-        <v>19.07</v>
+        <v>18.92</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000516792456917817</v>
+        <v>0.000516796459668381</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00054800000853107</v>
+        <v>0.000538653976720146</v>
       </c>
       <c r="O20" t="n">
         <v>12.05</v>
@@ -1543,19 +1543,19 @@
         <v>34128</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="K21" t="n">
-        <v>34799.26953125</v>
+        <v>35124.58984375</v>
       </c>
       <c r="L21" t="n">
-        <v>7.62</v>
+        <v>7.61</v>
       </c>
       <c r="M21" t="n">
         <v>0.000226284282700422</v>
       </c>
       <c r="N21" t="n">
-        <v>0.000218970113529457</v>
+        <v>0.000216657334188177</v>
       </c>
       <c r="O21" t="n">
         <v>7.46</v>
